--- a/HYY/成就列表.xlsx
+++ b/HYY/成就列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\财产认证计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BCDBD-56C1-462F-B7BC-69835068785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB06C4-E9B2-4F01-89DE-E1820718032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1357" yWindow="1357" windowWidth="5986" windowHeight="3886" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成就列表" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,254 +745,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="31"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="G17:H18"/>
@@ -1005,30 +1029,6 @@
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="G15:H16"/>
     <mergeCell ref="I15:J16"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B17FD3-8F90-4929-9E49-EDD4E43951B1}">
   <dimension ref="C2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1385,34 +1385,34 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="37"/>

--- a/HYY/成就列表.xlsx
+++ b/HYY/成就列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB06C4-E9B2-4F01-89DE-E1820718032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5356C462-4E7B-4FA6-B9EA-2A69D42A0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成就列表" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,278 +745,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="G17:H18"/>
@@ -1029,6 +1005,30 @@
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="G15:H16"/>
     <mergeCell ref="I15:J16"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B17FD3-8F90-4929-9E49-EDD4E43951B1}">
   <dimension ref="C2:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1127,15 +1127,15 @@
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="3:17" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
       <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1385,34 +1385,34 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="37"/>

--- a/HYY/成就列表.xlsx
+++ b/HYY/成就列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5356C462-4E7B-4FA6-B9EA-2A69D42A0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A9CF90-2228-4C6A-A34B-A7C23281D284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2438" windowWidth="16988" windowHeight="9465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成就列表" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="C2:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1147,15 +1147,15 @@
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="3:17" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
       <c r="K7" s="6" t="s">
         <v>30</v>
       </c>

--- a/HYY/成就列表.xlsx
+++ b/HYY/成就列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A9CF90-2228-4C6A-A34B-A7C23281D284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322CFA3-CAA5-4CF9-8DBE-EE6E7B96E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2438" windowWidth="16988" windowHeight="9465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,10 +439,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,247 +752,271 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="31"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="G17:H18"/>
@@ -1005,30 +1029,6 @@
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="G15:H16"/>
     <mergeCell ref="I15:J16"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="C2:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1167,15 +1167,15 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="3:17" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
       <c r="K8" s="6" t="s">
         <v>31</v>
       </c>
@@ -1385,34 +1385,34 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="37"/>
